--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -252,13 +252,11 @@
     <t>*</t>
   </si>
   <si>
-    <t>Information about patient's relatives, relevant for patient. 患者の親族に関する情報のうち、患者に関連する情報（家族歴）</t>
-  </si>
-  <si>
-    <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.</t>
-  </si>
-  <si>
-    <t>..</t>
+    <t>Information about patient's relatives, relevant for patient. 患者の親族に関する情報のうち、患者の診療に関連する情報（家族歴）</t>
+  </si>
+  <si>
+    <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
+患者の診療に関連する患者家族の疾患。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -468,7 +466,7 @@
 </t>
   </si>
   <si>
-    <t>External Id(s) for this record.</t>
+    <t>External Id(s) for this record</t>
   </si>
   <si>
     <t>Business identifiers assigned to this family member history by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
@@ -499,7 +497,7 @@
     <t>Instantiates FHIR protocol or definition</t>
   </si>
   <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory. （よくわからない）</t>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.</t>
   </si>
   <si>
     <t>Event.instantiatesCanonical</t>
@@ -514,7 +512,7 @@
     <t>Instantiates external protocol or definition</t>
   </si>
   <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.（よくわからない）</t>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.</t>
   </si>
   <si>
     <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
@@ -526,10 +524,11 @@
     <t>FamilyMemberHistory.status</t>
   </si>
   <si>
-    <t>partial | completed | entered-in-error | health-unknown（部分的｜完全｜記録エラー｜健康状態不明）</t>
-  </si>
-  <si>
-    <t>A code specifying the status of the record of the family history of a specific family member. 家族歴の記録のステータス。記録が部分的なものか完全なものかなど。</t>
+    <t>partial | completed | entered-in-error | health-unknown （部分的 | 完全 | 記録エラー | 健康状態不明）</t>
+  </si>
+  <si>
+    <t>A code specifying the status of the record of the family history of a specific family member.
+家族歴の記録のステータス。記録が部分的なものか完全なものかなど。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -538,7 +537,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/history-status</t>
+    <t>A code that identifies the status of the family history record.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/history-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -557,16 +559,20 @@
     <t>subject-unknown | withheld | unable-to-obtain | deferred (対象家族を知らない | 情報の提供を拒否 | 聞き出すことができない | 後日情報を提供できる)</t>
   </si>
   <si>
-    <t>Describes why the family member's history is not available. 1)subject-unknown：患者が対象の家族のことを知らない（例：患者は養子のため実親を知らない）, 2)withheld：患者が家族歴の共有を拒否, 3)unable-to-obtain：患者から聞き取れない（例：患者が意識不明）, 4)deferred：患者は今は知らないが、後日共有するつもりである。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+    <t>Describes why the family member's history is not available.
+1)subject-unknown:患者が対象の家族のことを知らない（例:患者は養子のため実親を知らない）
+2)withheld:患者が家族歴の共有を拒否
+3)unable-to-obtain:患者から聞き取れない（例：患者が意識不明）
+4)deferred:患者は今は知らないが、後日共有するつもりである</t>
   </si>
   <si>
     <t>This is a separate element to allow it to have a distinct binding from reasonCode.</t>
   </si>
   <si>
     <t>example</t>
+  </si>
+  <si>
+    <t>Codes describing the reason why a family member's history is not available.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/history-absent-reason</t>
@@ -589,7 +595,8 @@
     <t>Patient history is about</t>
   </si>
   <si>
-    <t>The person who this history concerns. 患者リソース（JP_Patient）への参照。</t>
+    <t>The person who this history concerns.
+この家族歴を有する患者。</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -611,7 +618,8 @@
     <t>When history was recorded or last updated</t>
   </si>
   <si>
-    <t>The date (and possibly time) when the family member history was recorded or last updated. この家族歴の最終更新日。</t>
+    <t>The date (and possibly time) when the family member history was recorded or last updated.
+この家族歴の最終更新日。</t>
   </si>
   <si>
     <t>This should be captured even if the same as the date on the List aggregating the full family history.</t>
@@ -632,7 +640,8 @@
     <t>The family member described</t>
   </si>
   <si>
-    <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair". 対象の家族の呼び名。例えば「スーザンおばさん」、「赤毛のいとこ」。</t>
+    <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair".
+対象の家族の呼び名。例えば「スーザンおばさん」「赤毛のいとこ」。</t>
   </si>
   <si>
     <t>Allows greater ease in ensuring the same person is being talked about.</t>
@@ -647,7 +656,11 @@
     <t>Relationship to the subject</t>
   </si>
   <si>
-    <t>The type of relationship this person has to the patient (father, mother, brother etc.). 患者と家族との関係の種類（父、母、兄弟など）</t>
+    <t>The type of relationship this person has to the patient (father, mother, brother etc.). 
+患者と家族との関係の種類（父、母、兄弟など）</t>
+  </si>
+  <si>
+    <t>The nature of the relationship between the patient and the related person being described in the family member history.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-FamilyMember</t>
@@ -659,10 +672,11 @@
     <t>FamilyMemberHistory.sex</t>
   </si>
   <si>
-    <t>male | female | other | unknown（男性｜女性｜その他｜不明）</t>
-  </si>
-  <si>
-    <t>The birth sex of the family member.（*Extensibleなのでこのまま列挙して必要に応じて追加するもあり）</t>
+    <t>male | female | other | unknown（男性 | 女性 | その他 | 不明）</t>
+  </si>
+  <si>
+    <t>The birth sex of the family member.
+家族の出生時の性別。</t>
   </si>
   <si>
     <t>This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
@@ -674,7 +688,8 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Codes describing the sex assigned at birth as documented on the birth registration.（出生届に記載されている性別）</t>
+    <t>Codes describing the sex assigned at birth as documented on the birth registration.
+出生届に記載される出生時に割り当てられた性別。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
@@ -690,7 +705,8 @@
     <t>(approximate) date of birth</t>
   </si>
   <si>
-    <t>The actual or approximate date of birth of the relative. 家族の実際もしくは凡その生年月日。</t>
+    <t>The actual or approximate date of birth of the relative.
+家族の実際もしくは凡その生年月日。</t>
   </si>
   <si>
     <t>Allows calculation of the relative's age.</t>
@@ -713,13 +729,15 @@
     <t>(approximate) age</t>
   </si>
   <si>
-    <t>The age of the relative at the time the family member history is recorded. 家族歴が記録された時点の親族の年齢。</t>
+    <t>The age of the relative at the time the family member history is recorded.
+家族歴が記録された時点のその家族の年齢。</t>
   </si>
   <si>
     <t>use estimatedAge to indicate whether the age is actual or not.</t>
   </si>
   <si>
-    <t>While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians. 年齢は生年月日から計算できるが、臨床医にとっては年齢を直接記録する方が自然な場合もある。</t>
+    <t>While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians.
+年齢は生年月日から計算できるが、臨床医にとっては年齢を直接記録する方が自然な場合もある。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ].act[classCode=OBS,moodCode=EVN, code="age"].value</t>
@@ -735,7 +753,8 @@
     <t>Age is estimated?</t>
   </si>
   <si>
-    <t>If true, indicates that the age value specified is an estimated value. 年齢が推定かどうか。</t>
+    <t>If true, indicates that the age value specified is an estimated value.
+この年齢が推定かどうか。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
@@ -761,7 +780,8 @@
     <t>Dead? How old/when?</t>
   </si>
   <si>
-    <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record. 死亡フラグ／家族の死亡時の実年齢／おおよその年齢。</t>
+    <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record.
+死亡フラグ/家族の死亡時の実年齢/おおよその年齢。</t>
   </si>
   <si>
     <t>player[classCode=LIV, determinerCode=INSTANCE].deceasedInd, deceasedDate (could be URG)  For age, you'd hang an observation off the role</t>
@@ -773,10 +793,14 @@
     <t>Why was family member history performed?</t>
   </si>
   <si>
-    <t>Describes why the family member history occurred in coded or textual form. 家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
+    <t>Describes why the family member history occurred in coded or textual form.
+家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
   </si>
   <si>
     <t>Textual reasons can be captured using reasonCode.text.</t>
+  </si>
+  <si>
+    <t>Codes indicating why the family member history was done.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -795,7 +819,8 @@
 </t>
   </si>
   <si>
-    <t>Indicates a Condition, Observation, AllergyIntolerance, or QuestionnaireResponse that justifies this family member history event. この家族歴が聴取されたきっかけとなったFHIRリソースへの参照。</t>
+    <t>Indicates a JP_Condition, JP_Observation, JP_AllergyIntolerance, or JP_QuestionnaireResponse JP_Observation_Common, or JP_DiagnosticReport_Common that justifies this family member history event.
+この家族歴が聴取されたきっかけとなったFHIRリソースへの参照。</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -814,7 +839,8 @@
     <t>General note about related person</t>
   </si>
   <si>
-    <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible. この家族に関するメモ。</t>
+    <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible.
+この家族に関するメモ。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -833,7 +859,8 @@
     <t>Condition that the related person had</t>
   </si>
   <si>
-    <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition. この家族が持っていた疾患（または状態）。</t>
+    <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition.
+この家族が持っていた疾患。</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=ActCode#ASSERTION, value&lt;Diagnosis]</t>
@@ -886,7 +913,11 @@
     <t>Condition suffered by relation</t>
   </si>
   <si>
-    <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.</t>
+    <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.
+指定された実際の状態。その状態についてどの程度知られているか、また作成システムの能力に応じて、コード化された状態（MIや糖尿病など）、または「癌」のようなあまり特定されない文字列になる可能性がある。</t>
+  </si>
+  <si>
+    <t>Identification of the Condition or diagnosis.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -901,7 +932,11 @@
     <t>deceased | permanent disability | etc.</t>
   </si>
   <si>
-    <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.</t>
+    <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.
+その状態の後に何が起こったかを示す。その結果、死亡した場合は、死亡した日付が関連に記録される。</t>
+  </si>
+  <si>
+    <t>The result of the condition for the patient; e.g. death, permanent disability, temporary disability, etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-outcome</t>
@@ -916,7 +951,8 @@
     <t>Whether the condition contributed to the cause of death</t>
   </si>
   <si>
-    <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.</t>
+    <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.
+この状態は、関連者の死因に寄与した。contributedToDeath が入力されていない場合は、不明である。</t>
   </si>
   <si>
     <t>FamilyMemberHistory.condition.onset[x]</t>
@@ -929,7 +965,8 @@
     <t>When condition first manifested</t>
   </si>
   <si>
-    <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.</t>
+    <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.
+発症年齢、おおよその年齢範囲、記述文字列のいずれかを記録することができる。複数回発生する疾患については、最初に知られている発生を記述する。</t>
   </si>
   <si>
     <t>Age of onset of a condition in relatives is predictive of risk for the patient.</t>
@@ -944,7 +981,8 @@
     <t>Extra information about condition</t>
   </si>
   <si>
-    <t>An area where general notes can be placed about this specific condition.</t>
+    <t>An area where general notes can be placed about this specific condition.
+この家族の疾患についての一般的なメモ。</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1321,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.61328125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="112.3828125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -1453,9 +1491,7 @@
       <c r="L2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="M2" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
         <v>76</v>
@@ -1516,16 +1552,16 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>76</v>
@@ -1533,7 +1569,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1544,28 +1580,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1615,13 +1651,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -1644,7 +1680,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1655,25 +1691,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1724,19 +1760,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -1753,7 +1789,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1764,28 +1800,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1835,19 +1871,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -1864,7 +1900,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1875,7 +1911,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -1887,16 +1923,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1922,43 +1958,43 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -1975,18 +2011,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -1998,16 +2034,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2057,28 +2093,28 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2086,11 +2122,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2109,16 +2145,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2168,7 +2204,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2189,7 +2225,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2197,11 +2233,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2220,16 +2256,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2279,7 +2315,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2291,7 +2327,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2300,7 +2336,7 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2308,11 +2344,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2325,25 +2361,25 @@
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2392,7 +2428,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2404,7 +2440,7 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2413,7 +2449,7 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2421,7 +2457,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2441,22 +2477,22 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>76</v>
@@ -2505,7 +2541,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -2517,24 +2553,24 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2554,16 +2590,16 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2614,7 +2650,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2626,16 +2662,16 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -2643,7 +2679,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2663,19 +2699,19 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2725,7 +2761,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -2737,16 +2773,16 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -2754,7 +2790,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2762,31 +2798,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2812,9 +2848,11 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
         <v>169</v>
       </c>
@@ -2834,19 +2872,19 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>170</v>
@@ -2874,16 +2912,16 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>173</v>
@@ -2894,11 +2932,9 @@
       <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>76</v>
@@ -2923,9 +2959,11 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
         <v>179</v>
       </c>
@@ -2951,13 +2989,13 @@
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>76</v>
@@ -2982,19 +3020,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>183</v>
@@ -3057,16 +3095,16 @@
         <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>186</v>
@@ -3094,16 +3132,16 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>190</v>
@@ -3173,13 +3211,13 @@
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3207,19 +3245,19 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s" s="2">
+      <c r="J18" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>198</v>
@@ -3284,13 +3322,13 @@
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
@@ -3315,19 +3353,19 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>173</v>
@@ -3363,11 +3401,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3388,16 +3428,16 @@
         <v>202</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3406,7 +3446,7 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3414,7 +3454,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3425,31 +3465,31 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3474,13 +3514,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -3498,19 +3538,19 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
@@ -3527,7 +3567,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3538,7 +3578,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>76</v>
@@ -3550,17 +3590,17 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -3609,19 +3649,19 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
@@ -3630,7 +3670,7 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3638,7 +3678,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3649,31 +3689,31 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3722,19 +3762,19 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
@@ -3743,7 +3783,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3751,7 +3791,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3762,94 +3802,94 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -3866,7 +3906,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3877,25 +3917,25 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3946,19 +3986,19 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
@@ -3967,7 +4007,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -3975,7 +4015,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3995,19 +4035,19 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>173</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4033,11 +4073,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4055,7 +4097,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4067,10 +4109,10 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4079,12 +4121,12 @@
         <v>180</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4104,16 +4146,16 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4164,7 +4206,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4176,24 +4218,24 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4216,13 +4258,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4273,7 +4315,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4285,16 +4327,16 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4302,7 +4344,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4313,7 +4355,7 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>76</v>
@@ -4325,13 +4367,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4382,7 +4424,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4394,7 +4436,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4403,7 +4445,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4411,7 +4453,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4422,7 +4464,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -4434,13 +4476,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4491,13 +4533,13 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -4512,7 +4554,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4520,11 +4562,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4543,16 +4585,16 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4602,7 +4644,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4614,7 +4656,7 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>76</v>
@@ -4623,7 +4665,7 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4631,11 +4673,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4648,25 +4690,25 @@
         <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -4715,7 +4757,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4727,7 +4769,7 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -4736,7 +4778,7 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4744,7 +4786,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4752,10 +4794,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -4770,10 +4812,10 @@
         <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4800,11 +4842,13 @@
         <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -4822,19 +4866,19 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
@@ -4843,7 +4887,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4851,7 +4895,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4862,7 +4906,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -4877,10 +4921,10 @@
         <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4907,41 +4951,43 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="Y33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -4950,7 +4996,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -4958,7 +5004,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4969,7 +5015,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
@@ -4981,13 +5027,13 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5038,19 +5084,19 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
@@ -5067,7 +5113,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5078,7 +5124,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5090,17 +5136,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5149,19 +5195,19 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
@@ -5170,7 +5216,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5178,7 +5224,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5201,13 +5247,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5258,7 +5304,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5270,7 +5316,7 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
@@ -5279,7 +5325,7 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -281,7 +281,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -635,6 +635,10 @@
   </si>
   <si>
     <t>FamilyMemberHistory.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>The family member described</t>
@@ -3257,17 +3261,17 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3337,7 +3341,7 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3345,7 +3349,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3371,10 +3375,10 @@
         <v>173</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3404,10 +3408,10 @@
         <v>177</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3425,7 +3429,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -3446,7 +3450,7 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3454,7 +3458,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3480,16 +3484,16 @@
         <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3514,13 +3518,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -3538,7 +3542,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3567,7 +3571,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3590,17 +3594,17 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -3649,7 +3653,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3658,7 +3662,7 @@
         <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
@@ -3670,7 +3674,7 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3701,19 +3705,19 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3762,7 +3766,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3771,7 +3775,7 @@
         <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>98</v>
@@ -3783,7 +3787,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3791,7 +3795,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3814,70 +3818,70 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3886,7 +3890,7 @@
         <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>98</v>
@@ -3906,7 +3910,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3929,13 +3933,13 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3986,7 +3990,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4007,7 +4011,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4015,7 +4019,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4041,13 +4045,13 @@
         <v>173</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4076,10 +4080,10 @@
         <v>177</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4097,7 +4101,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4112,7 +4116,7 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4121,12 +4125,12 @@
         <v>180</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4149,13 +4153,13 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4206,7 +4210,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4221,21 +4225,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4258,13 +4262,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4315,7 +4319,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4330,13 +4334,13 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4344,7 +4348,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4367,13 +4371,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4424,7 +4428,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4445,7 +4449,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4453,7 +4457,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4476,13 +4480,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4533,7 +4537,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4554,7 +4558,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4562,7 +4566,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4591,7 +4595,7 @@
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>135</v>
@@ -4644,7 +4648,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4665,7 +4669,7 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4673,11 +4677,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4699,10 +4703,10 @@
         <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>135</v>
@@ -4757,7 +4761,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4786,7 +4790,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4812,10 +4816,10 @@
         <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4845,10 +4849,10 @@
         <v>177</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -4866,7 +4870,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>86</v>
@@ -4887,7 +4891,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4895,7 +4899,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4921,10 +4925,10 @@
         <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4954,10 +4958,10 @@
         <v>177</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -4975,7 +4979,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4996,7 +5000,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5004,7 +5008,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5027,13 +5031,13 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5084,7 +5088,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5113,7 +5117,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5136,17 +5140,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5195,7 +5199,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5216,7 +5220,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5224,7 +5228,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5247,13 +5251,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5304,7 +5308,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5325,7 +5329,7 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,11 +252,11 @@
     <t>*</t>
   </si>
   <si>
-    <t>Information about patient's relatives, relevant for patient. 患者の親族に関する情報のうち、患者の診療に関連する情報（家族歴）</t>
+    <t>Information about patient's relatives, relevant for patient. 患者の家族に関する情報のうち、患者に関連する情報（家族歴）</t>
   </si>
   <si>
     <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
-患者の診療に関連する患者家族の疾患。</t>
+患者の診療に関連する、患者家族の疾患に関する情報。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -375,7 +375,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -524,7 +524,7 @@
     <t>FamilyMemberHistory.status</t>
   </si>
   <si>
-    <t>partial | completed | entered-in-error | health-unknown （部分的 | 完全 | 記録エラー | 健康状態不明）</t>
+    <t>partial | completed | entered-in-error | health-unknown この家族歴の記録ステータス（部分的 | 完全 | 記録エラー | 健康状態不明）</t>
   </si>
   <si>
     <t>A code specifying the status of the record of the family history of a specific family member.
@@ -556,7 +556,7 @@
 </t>
   </si>
   <si>
-    <t>subject-unknown | withheld | unable-to-obtain | deferred (対象家族を知らない | 情報の提供を拒否 | 聞き出すことができない | 後日情報を提供できる)</t>
+    <t>subject-unknown | withheld | unable-to-obtain | deferred この家族歴が記録されない理由(対象家族を知らない | 情報の提供を拒否 | 聞き出すことができない | 後日情報を提供できる)</t>
   </si>
   <si>
     <t>Describes why the family member's history is not available.
@@ -592,7 +592,7 @@
 </t>
   </si>
   <si>
-    <t>Patient history is about</t>
+    <t>Patient history is about. この家族歴を有する患者</t>
   </si>
   <si>
     <t>The person who this history concerns.
@@ -615,7 +615,7 @@
 </t>
   </si>
   <si>
-    <t>When history was recorded or last updated</t>
+    <t>When history was recorded or last updated. この家族歴の最終更新日</t>
   </si>
   <si>
     <t>The date (and possibly time) when the family member history was recorded or last updated.
@@ -641,7 +641,7 @@
 </t>
   </si>
   <si>
-    <t>The family member described</t>
+    <t>The family member described. この家族の名前</t>
   </si>
   <si>
     <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair".
@@ -657,11 +657,11 @@
     <t>FamilyMemberHistory.relationship</t>
   </si>
   <si>
-    <t>Relationship to the subject</t>
+    <t>Relationship to the subject. この家族の患者との関係（父、母、兄弟など）</t>
   </si>
   <si>
     <t>The type of relationship this person has to the patient (father, mother, brother etc.). 
-患者と家族との関係の種類（父、母、兄弟など）</t>
+この家族が患者とどのような関係か（父、母、兄弟など）</t>
   </si>
   <si>
     <t>The nature of the relationship between the patient and the related person being described in the family member history.</t>
@@ -676,11 +676,11 @@
     <t>FamilyMemberHistory.sex</t>
   </si>
   <si>
-    <t>male | female | other | unknown（男性 | 女性 | その他 | 不明）</t>
+    <t>male | female | other | unknown 性別（男性 | 女性 | その他 | 不明）</t>
   </si>
   <si>
     <t>The birth sex of the family member.
-家族の出生時の性別。</t>
+この家族の出生時の性別。</t>
   </si>
   <si>
     <t>This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
@@ -706,11 +706,11 @@
 datestring</t>
   </si>
   <si>
-    <t>(approximate) date of birth</t>
+    <t>(approximate) date of birth. この家族のおよその生年月日</t>
   </si>
   <si>
     <t>The actual or approximate date of birth of the relative.
-家族の実際もしくは凡その生年月日。</t>
+家族の実際もしくはおおよその生年月日。</t>
   </si>
   <si>
     <t>Allows calculation of the relative's age.</t>
@@ -730,11 +730,11 @@
 Rangestring</t>
   </si>
   <si>
-    <t>(approximate) age</t>
+    <t>(approximate) age. この家族のおよその年齢</t>
   </si>
   <si>
     <t>The age of the relative at the time the family member history is recorded.
-家族歴が記録された時点のその家族の年齢。</t>
+家族歴が記録された時点でのこの家族の年齢。</t>
   </si>
   <si>
     <t>use estimatedAge to indicate whether the age is actual or not.</t>
@@ -754,11 +754,11 @@
 </t>
   </si>
   <si>
-    <t>Age is estimated?</t>
+    <t>Age is estimated? この家族の年齢は推定か？</t>
   </si>
   <si>
     <t>If true, indicates that the age value specified is an estimated value.
-この年齢が推定かどうか。</t>
+Trueである場合この年齢は推定値である。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
@@ -781,11 +781,11 @@
 AgeRangedatestring</t>
   </si>
   <si>
-    <t>Dead? How old/when?</t>
+    <t>Dead? How old/when? この家族は亡くなっているか、そうであれば何歳もしくはいつ亡くなったか</t>
   </si>
   <si>
     <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record.
-死亡フラグ/家族の死亡時の実年齢/おおよその年齢。</t>
+死亡したかどうかのフラグ/家族の死亡時の実年齢/おおよその年齢。</t>
   </si>
   <si>
     <t>player[classCode=LIV, determinerCode=INSTANCE].deceasedInd, deceasedDate (could be URG)  For age, you'd hang an observation off the role</t>
@@ -794,11 +794,11 @@
     <t>FamilyMemberHistory.reasonCode</t>
   </si>
   <si>
-    <t>Why was family member history performed?</t>
+    <t>Why was family member history performed? なぜ家族歴が聴取されたか（契機となった患者の疾患）</t>
   </si>
   <si>
     <t>Describes why the family member history occurred in coded or textual form.
-家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
+家族歴を聴取する契機となった患者の疾患をコードもしくはテキストで記述（CodeableConcept)</t>
   </si>
   <si>
     <t>Textual reasons can be captured using reasonCode.text.</t>
@@ -823,6 +823,9 @@
 </t>
   </si>
   <si>
+    <t>Why was family member history performed? なぜ家族歴が聴取されたか（契機となったFHIRリソース）</t>
+  </si>
+  <si>
     <t>Indicates a JP_Condition, JP_Observation, JP_AllergyIntolerance, or JP_QuestionnaireResponse JP_Observation_Common, or JP_DiagnosticReport_Common that justifies this family member history event.
 この家族歴が聴取されたきっかけとなったFHIRリソースへの参照。</t>
   </si>
@@ -840,7 +843,7 @@
 </t>
   </si>
   <si>
-    <t>General note about related person</t>
+    <t>General note about related person. この家族に関するメモ</t>
   </si>
   <si>
     <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible.
@@ -860,7 +863,7 @@
 </t>
   </si>
   <si>
-    <t>Condition that the related person had</t>
+    <t>Condition that the related person had. この家族が有する疾患</t>
   </si>
   <si>
     <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition.
@@ -914,11 +917,11 @@
     <t>FamilyMemberHistory.condition.code</t>
   </si>
   <si>
-    <t>Condition suffered by relation</t>
+    <t>Condition suffered by relation. この家族の疾患</t>
   </si>
   <si>
     <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.
-指定された実際の状態。その状態についてどの程度知られているか、また作成システムの能力に応じて、コード化された状態（MIや糖尿病など）、または「癌」のようなあまり特定されない文字列になる可能性がある。</t>
+この疾患について知られている程度や作成システムの能力に応じて、コード化された状態（MIや糖尿病など）、または「がん」のようなあまり特定されない文字列になる可能性がある。</t>
   </si>
   <si>
     <t>Identification of the Condition or diagnosis.</t>
@@ -933,7 +936,7 @@
     <t>FamilyMemberHistory.condition.outcome</t>
   </si>
   <si>
-    <t>deceased | permanent disability | etc.</t>
+    <t>deceased | permanent disability | etc. この疾患のアウトカム（死亡 | 後遺障害 | その他）</t>
   </si>
   <si>
     <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.
@@ -952,11 +955,11 @@
     <t>FamilyMemberHistory.condition.contributedToDeath</t>
   </si>
   <si>
-    <t>Whether the condition contributed to the cause of death</t>
+    <t>Whether the condition contributed to the cause of death. この疾患が死亡の原因となったかどうか</t>
   </si>
   <si>
     <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.
-この状態は、関連者の死因に寄与した。contributedToDeath が入力されていない場合は、不明である。</t>
+この疾患が家族の死亡に寄与したかどうかのフラグ。入力されていない場合は、不明である。</t>
   </si>
   <si>
     <t>FamilyMemberHistory.condition.onset[x]</t>
@@ -966,11 +969,11 @@
 RangePeriodstring</t>
   </si>
   <si>
-    <t>When condition first manifested</t>
+    <t>When condition first manifested. この疾患のオンセット</t>
   </si>
   <si>
     <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.
-発症年齢、おおよその年齢範囲、記述文字列のいずれかを記録することができる。複数回発生する疾患については、最初に知られている発生を記述する。</t>
+発症年齢、おおよその年齢範囲、記述文字列のいずれかを記録する。複数回発生する疾患については、最初に知られている発生を記述する。</t>
   </si>
   <si>
     <t>Age of onset of a condition in relatives is predictive of risk for the patient.</t>
@@ -982,11 +985,11 @@
     <t>FamilyMemberHistory.condition.note</t>
   </si>
   <si>
-    <t>Extra information about condition</t>
+    <t>Extra information about condition. この疾患についての追加の情報メモ</t>
   </si>
   <si>
     <t>An area where general notes can be placed about this specific condition.
-この家族の疾患についての一般的なメモ。</t>
+この疾患についての一般的なメモ。</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1315,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="117.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4156,10 +4159,10 @@
         <v>253</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4225,13 +4228,13 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>251</v>
@@ -4239,7 +4242,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4262,13 +4265,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4319,7 +4322,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4334,13 +4337,13 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4348,7 +4351,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4371,13 +4374,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4428,7 +4431,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4449,7 +4452,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4457,7 +4460,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4483,10 +4486,10 @@
         <v>198</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4537,7 +4540,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4558,7 +4561,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4566,7 +4569,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4595,7 +4598,7 @@
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>135</v>
@@ -4648,7 +4651,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4669,7 +4672,7 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4677,11 +4680,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4703,10 +4706,10 @@
         <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>135</v>
@@ -4761,7 +4764,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4790,7 +4793,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4816,10 +4819,10 @@
         <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4849,10 +4852,10 @@
         <v>177</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -4870,7 +4873,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>86</v>
@@ -4891,7 +4894,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4899,7 +4902,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4925,10 +4928,10 @@
         <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4958,10 +4961,10 @@
         <v>177</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -4979,7 +4982,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5000,7 +5003,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5034,10 +5037,10 @@
         <v>232</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5088,7 +5091,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5117,7 +5120,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5140,17 +5143,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5199,7 +5202,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5220,7 +5223,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5228,7 +5231,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5251,13 +5254,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5308,7 +5311,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5329,7 +5332,7 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -257,10 +260,6 @@
   <si>
     <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
 患者の診療に関連する、患者家族の疾患に関する情報。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1238,55 +1237,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1348,218 +1347,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>82</v>
@@ -1571,7 +1570,7 @@
         <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1580,20 +1579,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>87</v>
@@ -1612,77 +1611,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1691,20 +1690,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>87</v>
@@ -1721,77 +1720,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1800,17 +1799,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>87</v>
@@ -1832,77 +1831,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1911,23 +1910,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>106</v>
@@ -1943,26 +1942,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>110</v>
@@ -1974,46 +1973,46 @@
         <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2026,19 +2025,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>116</v>
@@ -2054,77 +2053,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2136,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>124</v>
@@ -2165,77 +2164,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2248,19 +2247,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>132</v>
@@ -2276,77 +2275,77 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2359,19 +2358,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>132</v>
@@ -2389,77 +2388,77 @@
         <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -2468,20 +2467,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>87</v>
@@ -2502,62 +2501,62 @@
         <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>98</v>
@@ -2566,7 +2565,7 @@
         <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>150</v>
@@ -2581,20 +2580,20 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
@@ -2611,62 +2610,62 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>98</v>
@@ -2675,13 +2674,13 @@
         <v>156</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -2690,20 +2689,20 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>87</v>
@@ -2722,62 +2721,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>98</v>
@@ -2786,13 +2785,13 @@
         <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -2801,7 +2800,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2811,7 +2810,7 @@
         <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>87</v>
@@ -2833,26 +2832,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>167</v>
@@ -2864,19 +2863,19 @@
         <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>163</v>
@@ -2888,7 +2887,7 @@
         <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>98</v>
@@ -2897,10 +2896,10 @@
         <v>170</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>171</v>
@@ -2912,20 +2911,20 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>87</v>
@@ -2944,26 +2943,26 @@
         <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>177</v>
@@ -2975,46 +2974,46 @@
         <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -3033,10 +3032,10 @@
         <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>87</v>
@@ -3053,50 +3052,50 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>181</v>
@@ -3108,7 +3107,7 @@
         <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>98</v>
@@ -3117,7 +3116,7 @@
         <v>186</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>187</v>
@@ -3132,20 +3131,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
@@ -3166,71 +3165,71 @@
         <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>195</v>
@@ -3245,20 +3244,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
@@ -3277,77 +3276,77 @@
         <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -3356,7 +3355,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3366,10 +3365,10 @@
         <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>87</v>
@@ -3386,26 +3385,26 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>177</v>
@@ -3417,19 +3416,19 @@
         <v>207</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>203</v>
@@ -3441,22 +3440,22 @@
         <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -3465,20 +3464,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>87</v>
@@ -3499,26 +3498,26 @@
         <v>213</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>214</v>
@@ -3530,46 +3529,46 @@
         <v>216</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -3578,23 +3577,23 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>218</v>
@@ -3610,56 +3609,56 @@
         <v>221</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3671,16 +3670,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -3689,20 +3688,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>87</v>
@@ -3723,56 +3722,56 @@
         <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -3784,16 +3783,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -3802,20 +3801,20 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>87</v>
@@ -3836,58 +3835,58 @@
         <v>236</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>237</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3899,16 +3898,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -3917,20 +3916,20 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>87</v>
@@ -3947,77 +3946,77 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -4026,20 +4025,20 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>87</v>
@@ -4058,26 +4057,26 @@
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>177</v>
@@ -4089,31 +4088,31 @@
         <v>249</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
@@ -4122,7 +4121,7 @@
         <v>250</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>180</v>
@@ -4137,20 +4136,20 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>87</v>
@@ -4167,62 +4166,62 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>98</v>
@@ -4231,7 +4230,7 @@
         <v>256</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>257</v>
@@ -4246,23 +4245,23 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>259</v>
@@ -4276,62 +4275,62 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>258</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
@@ -4340,13 +4339,13 @@
         <v>262</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -4355,23 +4354,23 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>265</v>
@@ -4385,77 +4384,77 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -4464,23 +4463,23 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>198</v>
@@ -4494,77 +4493,77 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -4577,19 +4576,19 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>132</v>
@@ -4605,77 +4604,77 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -4688,13 +4687,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>87</v>
@@ -4718,77 +4717,77 @@
         <v>141</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>281</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -4797,7 +4796,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4807,13 +4806,13 @@
         <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>173</v>
@@ -4827,26 +4826,26 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>177</v>
@@ -4858,19 +4857,19 @@
         <v>286</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>282</v>
@@ -4882,22 +4881,22 @@
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -4906,23 +4905,23 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>173</v>
@@ -4936,26 +4935,26 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>177</v>
@@ -4967,46 +4966,46 @@
         <v>292</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5015,23 +5014,23 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>232</v>
@@ -5045,77 +5044,77 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -5124,23 +5123,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>298</v>
@@ -5156,77 +5155,77 @@
         <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -5235,23 +5234,23 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>259</v>
@@ -5265,77 +5264,77 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>263</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-familymemberhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
